--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F600085-C0DF-4E1E-80AC-F618E31164E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C016ECBD-7ABF-4CA1-98D5-DD593428275B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="10" r:id="rId3"/>
     <sheet name="Swiss" sheetId="13" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -111,6 +112,12 @@
   </si>
   <si>
     <t>Fire Brigade Panel - LocalIO</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2407</t>
   </si>
 </sst>
 </file>
@@ -899,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A6B98A-6404-4D9E-B25F-C3C2229080D6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1004,4 +1011,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96038D7D-8158-4431-98CF-97DF7B5C0E38}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C016ECBD-7ABF-4CA1-98D5-DD593428275B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2E3819-B407-407E-B6C6-107E6E9C69B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="10" r:id="rId3"/>
     <sheet name="Swiss" sheetId="13" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>NGC-3479/T2407</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3223</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96038D7D-8158-4431-98CF-97DF7B5C0E38}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1133,4 +1140,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65CA93A-9FC2-42CC-99A9-109A5B307CB0}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2E3819-B407-407E-B6C6-107E6E9C69B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED84BE3-F2DF-4A4E-B10A-C764F5A9B53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="13" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2157</t>
   </si>
 </sst>
 </file>
@@ -1146,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65CA93A-9FC2-42CC-99A9-109A5B307CB0}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,4 +1269,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F247B-DDF7-42BE-B578-06FDBA76616B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED84BE3-F2DF-4A4E-B10A-C764F5A9B53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502580A7-B0CC-48BC-98D5-447ECB9559FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -132,6 +133,12 @@
   </si>
   <si>
     <t>NGC-3145/T2157</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2041</t>
   </si>
 </sst>
 </file>
@@ -1275,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F247B-DDF7-42BE-B578-06FDBA76616B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,4 +1383,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD4EF81-2C55-4FC9-B01C-FD9F70E16DF1}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502580A7-B0CC-48BC-98D5-447ECB9559FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4614968B-6FDF-4484-8B1A-95A549280BAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -139,6 +140,12 @@
   </si>
   <si>
     <t>NGC-3103/T2041</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3299</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD4EF81-2C55-4FC9-B01C-FD9F70E16DF1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,4 +1496,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42D7BEB-1F0D-4C38-9335-C07EBA260A33}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4614968B-6FDF-4484-8B1A-95A549280BAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4B592-59F0-49C2-8B0B-2C0DA30E1B94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -146,6 +147,12 @@
   </si>
   <si>
     <t>NGC-3191/T3299</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2421</t>
   </si>
 </sst>
 </file>
@@ -687,6 +694,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878843DA-2B8E-43F6-8EDB-0C0254B71174}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30984FFC-D37F-4291-9644-30326B87624C}">
   <dimension ref="A1:D15"/>
@@ -1502,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42D7BEB-1F0D-4C38-9335-C07EBA260A33}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4B592-59F0-49C2-8B0B-2C0DA30E1B94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B391419-542E-4AC6-8328-ED140433410D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
+    <sheet name="Greece" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -153,6 +154,12 @@
   </si>
   <si>
     <t>NGC-3139/T2421</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3168</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -698,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878843DA-2B8E-43F6-8EDB-0C0254B71174}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,6 +752,112 @@
       </c>
       <c r="B4" t="s">
         <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441A817A-F69B-4C7A-9424-B1CBE06802F2}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B391419-542E-4AC6-8328-ED140433410D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E9033-9567-4284-8FAC-666CE816B00E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
     <sheet name="Greece" sheetId="21" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
+    <sheet name="Austria" sheetId="23" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -160,6 +163,30 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>Multichannel Transmission Unit</t>
+  </si>
+  <si>
+    <t>Transmission Unit and Keysafe</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2183</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2279</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2279</t>
   </si>
 </sst>
 </file>
@@ -811,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441A817A-F69B-4C7A-9424-B1CBE06802F2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -858,6 +885,352 @@
       </c>
       <c r="B4" t="s">
         <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82C7D82-412A-4CC3-AFD4-F02883DD561E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF1052E-F15F-409E-993F-063337B8C786}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C05CF-0E86-46E2-8758-930793A7BB47}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E9033-9567-4284-8FAC-666CE816B00E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85977165-8A66-4783-B849-6BDD90C790FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>NGC-2913/T2279</t>
+  </si>
+  <si>
+    <t>Multichannel Transmission Unit and Keysafe</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF1052E-F15F-409E-993F-063337B8C786}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1154,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C05CF-0E86-46E2-8758-930793A7BB47}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85977165-8A66-4783-B849-6BDD90C790FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6ADDD9-C56C-4FBD-BE3A-853C998E6CCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
     <sheet name="Austria" sheetId="23" r:id="rId13"/>
     <sheet name="Denmark" sheetId="24" r:id="rId14"/>
+    <sheet name="Russia" sheetId="26" r:id="rId15"/>
+    <sheet name="Finland" sheetId="27" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -190,6 +193,24 @@
   </si>
   <si>
     <t>Multichannel Transmission Unit and Keysafe</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2901</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2944</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2993</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF1052E-F15F-409E-993F-063337B8C786}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1289,6 +1310,324 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F26FCF2-8B63-490D-AB3F-C445D8F49568}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F17D74-746A-42FD-B392-094F0740E233}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3357B3-AB55-4E91-A30B-1A20BC9ECCD5}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30984FFC-D37F-4291-9644-30326B87624C}">
   <dimension ref="A1:D15"/>

--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6ADDD9-C56C-4FBD-BE3A-853C998E6CCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E0731-D0A8-4705-9C31-2D2DB3D6BBF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="26" r:id="rId15"/>
     <sheet name="Finland" sheetId="27" r:id="rId16"/>
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
+    <sheet name="Norway" sheetId="29" r:id="rId18"/>
+    <sheet name="Poland" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="58">
   <si>
     <t>Wg</t>
   </si>
@@ -211,6 +213,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3062</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3105</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3357B3-AB55-4E91-A30B-1A20BC9ECCD5}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1580,6 +1594,218 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C16924-FF80-48B5-8A9F-3B85C5CB053E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80AA30B-16F7-4B8C-ADB3-5A5DE6135868}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E0731-D0A8-4705-9C31-2D2DB3D6BBF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8683FA-3628-4683-81FF-EA8935CB35BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
     <sheet name="Norway" sheetId="29" r:id="rId18"/>
     <sheet name="Poland" sheetId="30" r:id="rId19"/>
+    <sheet name="UK" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="60">
   <si>
     <t>Wg</t>
   </si>
@@ -225,6 +226,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3343</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C16924-FF80-48B5-8A9F-3B85C5CB053E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1976,6 +1983,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9206AC-02B4-45E7-96DF-3FA883205259}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736FEEC1-2829-49BB-B9C3-5C3559582F7C}">
   <dimension ref="A1:D15"/>

--- a/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
+++ b/Test Data/AttachedFunctionality_PFI_Node_XX_Panel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8683FA-3628-4683-81FF-EA8935CB35BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E80F6AC-73ED-4225-9C27-EBA2CDAE3ACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -228,10 +228,10 @@
     <t>Poland Market</t>
   </si>
   <si>
-    <t>NGC-2741/T3343</t>
-  </si>
-  <si>
     <t>UK Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3344</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +1988,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -2033,7 +2033,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
